--- a/Documentation/UseCases-Scenarios/useCases-Scenarii.xlsx
+++ b/Documentation/UseCases-Scenarios/useCases-Scenarii.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebAppGestionRepas\Documentation\UseCases-Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDBDD5C-E344-4262-B692-C2E93CF06B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFD19B-F614-4302-A4E6-05B769FD5DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="817" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="817" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case_Visiteur" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Scenario_Visiteur_Connexion" sheetId="15" r:id="rId5"/>
     <sheet name="Scenario_Visiteur_Inscription" sheetId="16" r:id="rId6"/>
     <sheet name="Scenario_Utilisateur_Recettes" sheetId="18" r:id="rId7"/>
-    <sheet name="Scenario_Utilisateur_Menu" sheetId="19" r:id="rId8"/>
+    <sheet name="Scenario_Utilisateur_Menus" sheetId="19" r:id="rId8"/>
     <sheet name="Scenario_Utilisateur_Commission" sheetId="21" r:id="rId9"/>
     <sheet name="Scenario_Utilisateur_Deconnexio" sheetId="22" r:id="rId10"/>
     <sheet name="Scenario_Admin_Utilisateurs" sheetId="23" r:id="rId11"/>
@@ -176,9 +176,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>1 - Afficher la page d'accueil</t>
-  </si>
-  <si>
     <t>Acceder à la page d'accueil</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Avoir des fonctionalités suplémentaire en fonction du type d'utilisateur</t>
   </si>
   <si>
-    <t>2 - Se connecter</t>
-  </si>
-  <si>
     <t>Je clique sur le bouton [profil]</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Tout est correct</t>
   </si>
   <si>
-    <t>3 - S'inscrire</t>
-  </si>
-  <si>
     <t>Affiche les pages pour les utilisateurs dans le menu</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>Visiteur (Non connecté)</t>
   </si>
   <si>
-    <t>4 - Liste des recettes</t>
-  </si>
-  <si>
     <t>Être connecté</t>
   </si>
   <si>
@@ -437,9 +425,6 @@
     <t>Affichage de la liste des ingrédients pour l'enseigne la moin cher</t>
   </si>
   <si>
-    <t>7 - Se déconnecter</t>
-  </si>
-  <si>
     <t>Me déconnecter</t>
   </si>
   <si>
@@ -455,15 +440,6 @@
     <t>Être connecté en tant qu'utilisateur</t>
   </si>
   <si>
-    <t>5 - Menu</t>
-  </si>
-  <si>
-    <t>6 - Commissions</t>
-  </si>
-  <si>
-    <t>8 - Ajouter et modifier un utilisateur</t>
-  </si>
-  <si>
     <t>Administrateur</t>
   </si>
   <si>
@@ -578,12 +554,6 @@
     <t>Affiche la page "Recettes" sans la recette supprimée"</t>
   </si>
   <si>
-    <t>9 - Ajouter et modifier une recette</t>
-  </si>
-  <si>
-    <t>9 - Ajouter et modifier un article</t>
-  </si>
-  <si>
     <t>gérer les articles</t>
   </si>
   <si>
@@ -645,6 +615,36 @@
   </si>
   <si>
     <t>Affiche la page "Articles" sans l'article supprimée"</t>
+  </si>
+  <si>
+    <t>10 - Ajouter et modifier un article</t>
+  </si>
+  <si>
+    <t>09 - Ajouter et modifier une recette</t>
+  </si>
+  <si>
+    <t>08 - Ajouter et modifier un utilisateur</t>
+  </si>
+  <si>
+    <t>07 - Se déconnecter</t>
+  </si>
+  <si>
+    <t>06 - Commissions</t>
+  </si>
+  <si>
+    <t>05 - Menu</t>
+  </si>
+  <si>
+    <t>04 - Liste des recettes</t>
+  </si>
+  <si>
+    <t>03 - S'inscrire</t>
+  </si>
+  <si>
+    <t>02 - Se connecter</t>
+  </si>
+  <si>
+    <t>01 - Afficher la page d'accueil</t>
   </si>
 </sst>
 </file>
@@ -3915,9 +3915,7 @@
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3938,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3949,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -3960,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -3971,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3982,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4000,26 +3998,26 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4035,9 +4033,7 @@
   </sheetPr>
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B16"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4058,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4069,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4080,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4091,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4102,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4120,75 +4116,75 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4204,9 +4200,7 @@
   </sheetPr>
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4227,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4238,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4249,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4260,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4271,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4289,93 +4283,93 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4394,9 +4388,7 @@
   </sheetPr>
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4417,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4428,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4439,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4450,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4461,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4479,102 +4471,102 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4590,9 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6940F9-33FA-4952-976F-45774B17A2D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4623,9 +4613,7 @@
   </sheetPr>
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4646,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4657,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4668,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4679,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4707,11 +4695,11 @@
     </row>
     <row r="9" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,9 +4721,7 @@
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4756,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4767,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4778,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4789,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4800,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4817,58 +4803,58 @@
     </row>
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,9 +4880,7 @@
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4917,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -4928,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -4939,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -4950,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4961,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4979,80 +4963,80 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
       <c r="C16" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5071,9 +5055,7 @@
   </sheetPr>
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5094,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -5105,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -5116,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -5127,7 +5109,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5156,35 +5138,35 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5200,9 +5182,7 @@
   </sheetPr>
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5223,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -5234,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -5245,7 +5225,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -5256,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5267,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5285,114 +5265,114 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5412,9 +5392,7 @@
   </sheetPr>
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5435,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -5446,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -5457,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -5468,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5479,7 +5457,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5497,53 +5475,53 @@
     <row r="9" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
